--- a/data/raw/hilco.xlsx
+++ b/data/raw/hilco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/lf649_drexel_edu/Documents/Research/South Philly R21/Report Back/Apps/THRIVEair_shiny/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/lf649_drexel_edu/Documents/Research/South Philly R21/Report Back/Apps/THRIVEair_shiny/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_946C2C74561096EC8EA805F7DCE308634B105E37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF8A9C4-9A15-F04D-BBC5-3F73A4E32087}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_946C2C74561096EC8EA805F7DCE308634B105E37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137DFA77-E4A0-534F-8FB8-080D4AC7CAF3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>lab_id</t>
   </si>
@@ -110,6 +110,42 @@
   </si>
   <si>
     <t>&lt;0.30</t>
+  </si>
+  <si>
+    <t>L625563-1</t>
+  </si>
+  <si>
+    <t>L626266-1</t>
+  </si>
+  <si>
+    <t>L626902-1</t>
+  </si>
+  <si>
+    <t>L627516-1</t>
+  </si>
+  <si>
+    <t>L627516-2</t>
+  </si>
+  <si>
+    <t>L627516-3</t>
+  </si>
+  <si>
+    <t>L628100-1</t>
+  </si>
+  <si>
+    <t>L628770-1</t>
+  </si>
+  <si>
+    <t>L629450-1</t>
+  </si>
+  <si>
+    <t>L630111-1</t>
+  </si>
+  <si>
+    <t>L630904-1</t>
+  </si>
+  <si>
+    <t>L631324-1</t>
   </si>
 </sst>
 </file>
@@ -119,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,6 +178,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,13 +216,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,10 +240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -781,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -804,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -827,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -849,6 +890,534 @@
       <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45413</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45420</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9900</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45420</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45427</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10065</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45427</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45434</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10243</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45434</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45441</v>
+      </c>
+      <c r="D23" s="5">
+        <v>9961</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45434</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45441</v>
+      </c>
+      <c r="D24" s="5">
+        <v>9961</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45434</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45441</v>
+      </c>
+      <c r="D25" s="5">
+        <v>9961</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45441</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45448</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10080</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45448</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45455</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10085</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45455</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45462</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10180</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45462</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45469</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9840</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45469</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45476</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10095</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45476</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45483</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10060</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
